--- a/zpi-backend/src/test/resources/test_plik_pracownicy.xlsx
+++ b/zpi-backend/src/test/resources/test_plik_pracownicy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A99E82B-1DFC-43D7-8357-73E8290F9A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DAF55D-2464-41AE-9A84-DBA3DC71A6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D141775-F52B-4CFE-9CEF-DBC76E6B4B4D}"/>
+    <workbookView xWindow="1770" yWindow="2265" windowWidth="21600" windowHeight="11295" xr2:uid="{0D141775-F52B-4CFE-9CEF-DBC76E6B4B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Lp.</t>
   </si>
@@ -68,107 +68,61 @@
     <t>dr</t>
   </si>
   <si>
-    <t>K34W04ND03</t>
-  </si>
-  <si>
     <t>W04N</t>
   </si>
   <si>
-    <t>K46W04ND03</t>
-  </si>
-  <si>
     <t>K30W04ND03</t>
   </si>
   <si>
-    <t>starszy wykładowca (N3-0504)</t>
-  </si>
-  <si>
-    <t>specjalista informatyk (P7-0601)</t>
-  </si>
-  <si>
     <t>adiunkt (N1-0501)</t>
   </si>
   <si>
-    <t>Andrzejewska</t>
-  </si>
-  <si>
-    <t>Milena</t>
-  </si>
-  <si>
-    <t>Augustyniak</t>
-  </si>
-  <si>
-    <t>Łukasz</t>
-  </si>
-  <si>
     <t>Babczyński</t>
   </si>
   <si>
     <t>Tomasz</t>
   </si>
   <si>
-    <t>milena.andrzejewska@pwr.edu.pl</t>
-  </si>
-  <si>
-    <t>lukasz.augustyniak@pwr.edu.pl</t>
-  </si>
-  <si>
     <t>tomasz.babczynski@pwr.edu.pl</t>
   </si>
   <si>
     <t>W4N</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>milena.andrzejewskaa@pwr.edu.pl</t>
-  </si>
-  <si>
-    <t>lukasz.augustyniakk@pwr.edu.pl</t>
-  </si>
-  <si>
-    <t>tomasz.babczynskii@pwr.edu.pl</t>
-  </si>
-  <si>
-    <t>tomasz.babczynskii@gmail.com</t>
-  </si>
-  <si>
     <t>W10</t>
   </si>
   <si>
     <t>K30W04XD10</t>
   </si>
   <si>
-    <t>tomasz.babczynskiIIi@gmail.com</t>
-  </si>
-  <si>
-    <t>tomasz.babczynskIii@gmail.com</t>
-  </si>
-  <si>
-    <t>milena.andrzejewskaaX@pwr.edu.pl</t>
-  </si>
-  <si>
-    <t>lukasz.augustyniakkX@pwr.edu.pl</t>
-  </si>
-  <si>
-    <t>tomasz.babczynskiiX@pwr.edu.pl</t>
+    <t>tomasz.babczynskiIIi@pwr.edu.pl</t>
+  </si>
+  <si>
+    <t>tomasz.babczynskIii@pwr.edu.pl</t>
+  </si>
+  <si>
+    <t>xxx.ddd@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,14 +145,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D31888-4087-4ACA-978D-8CA8E59D20DE}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,308 +516,143 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H2" s="1"/>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" t="s">
         <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
+      <c r="A4">
+        <v>239</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
+      <c r="A5">
+        <v>240</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H5" s="1"/>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
+      <c r="A6">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>236</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>237</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>238</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>239</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>239</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>240</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I6" r:id="rId1" xr:uid="{043864D2-5F3A-4728-BA83-1F348C29C84C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zpi-backend/src/test/resources/test_plik_pracownicy.xlsx
+++ b/zpi-backend/src/test/resources/test_plik_pracownicy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DAF55D-2464-41AE-9A84-DBA3DC71A6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EBCB30-3A73-45ED-9BBC-EE3299485B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="2265" windowWidth="21600" windowHeight="11295" xr2:uid="{0D141775-F52B-4CFE-9CEF-DBC76E6B4B4D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D141775-F52B-4CFE-9CEF-DBC76E6B4B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
   <si>
     <t>Lp.</t>
   </si>
@@ -77,12 +77,6 @@
     <t>adiunkt (N1-0501)</t>
   </si>
   <si>
-    <t>Babczyński</t>
-  </si>
-  <si>
-    <t>Tomasz</t>
-  </si>
-  <si>
     <t>tomasz.babczynski@pwr.edu.pl</t>
   </si>
   <si>
@@ -105,24 +99,88 @@
   </si>
   <si>
     <t>xxx.ddd@gmail.com</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Zły</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>+48234567890</t>
+  </si>
+  <si>
+    <t>Złe</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Tytuł</t>
+  </si>
+  <si>
+    <t>Złenazwisko</t>
+  </si>
+  <si>
+    <t>Złeimie</t>
+  </si>
+  <si>
+    <t>Wydział</t>
+  </si>
+  <si>
+    <t>Zła</t>
+  </si>
+  <si>
+    <t>Katedra</t>
+  </si>
+  <si>
+    <t>zle.id@pwr.edu.pl</t>
+  </si>
+  <si>
+    <t>zle.stanowisko@pwr.edu.pl</t>
+  </si>
+  <si>
+    <t>zly.tytul@pwr.edu.pl</t>
+  </si>
+  <si>
+    <t>zle.nazwisko@pwr.edu.pl</t>
+  </si>
+  <si>
+    <t>zle.imie@pwr.edu.pl</t>
+  </si>
+  <si>
+    <t>zly.wydzial@pwr.edu.pl</t>
+  </si>
+  <si>
+    <t>zla.katedra@pwr.edu.pl</t>
+  </si>
+  <si>
+    <t>zly.telefon@pwr.edu.pl</t>
+  </si>
+  <si>
+    <t>Będzie</t>
+  </si>
+  <si>
+    <t>Powtórka</t>
+  </si>
+  <si>
+    <t>Git</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,17 +203,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D31888-4087-4ACA-978D-8CA8E59D20DE}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,16 +572,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -538,21 +594,21 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -565,7 +621,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -576,13 +632,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -590,9 +646,11 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -603,23 +661,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -630,10 +690,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -646,13 +706,221 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>243</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>244</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>245</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>246</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>247</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>248</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>249</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1" xr:uid="{043864D2-5F3A-4728-BA83-1F348C29C84C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zpi-backend/src/test/resources/test_plik_pracownicy.xlsx
+++ b/zpi-backend/src/test/resources/test_plik_pracownicy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EBCB30-3A73-45ED-9BBC-EE3299485B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6F681D-0183-438F-B95D-F644FA1FFB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D141775-F52B-4CFE-9CEF-DBC76E6B4B4D}"/>
+    <workbookView xWindow="1680" yWindow="2235" windowWidth="21600" windowHeight="11295" xr2:uid="{0D141775-F52B-4CFE-9CEF-DBC76E6B4B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -206,10 +206,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -527,7 +526,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -731,7 +730,7 @@
       <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -757,7 +756,7 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -783,7 +782,7 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -809,7 +808,7 @@
       <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -835,7 +834,7 @@
       <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -861,7 +860,7 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -887,7 +886,7 @@
       <c r="G13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -916,7 +915,7 @@
       <c r="H14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" t="s">
         <v>41</v>
       </c>
     </row>

--- a/zpi-backend/src/test/resources/test_plik_pracownicy.xlsx
+++ b/zpi-backend/src/test/resources/test_plik_pracownicy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6F681D-0183-438F-B95D-F644FA1FFB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74F6D9F-AAC3-4269-A001-B1C892FD9EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="2235" windowWidth="21600" windowHeight="11295" xr2:uid="{0D141775-F52B-4CFE-9CEF-DBC76E6B4B4D}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0D141775-F52B-4CFE-9CEF-DBC76E6B4B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
   <si>
     <t>Lp.</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>W10</t>
   </si>
   <si>
     <t>K30W04XD10</t>
@@ -526,7 +523,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,10 +574,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -604,10 +601,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -631,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -646,10 +643,10 @@
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -660,25 +657,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -689,10 +686,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -705,21 +702,21 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -731,7 +728,7 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -739,13 +736,13 @@
         <v>243</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -757,7 +754,7 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -768,10 +765,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -783,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -794,10 +791,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -809,7 +806,7 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -820,13 +817,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -835,7 +832,7 @@
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -846,22 +843,22 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -872,7 +869,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -884,10 +881,10 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -898,7 +895,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -913,13 +910,14 @@
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/zpi-backend/src/test/resources/test_plik_pracownicy.xlsx
+++ b/zpi-backend/src/test/resources/test_plik_pracownicy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zpi-student-project-management\zpi-backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EBCB30-3A73-45ED-9BBC-EE3299485B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74F6D9F-AAC3-4269-A001-B1C892FD9EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D141775-F52B-4CFE-9CEF-DBC76E6B4B4D}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0D141775-F52B-4CFE-9CEF-DBC76E6B4B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
   <si>
     <t>Lp.</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>W10</t>
   </si>
   <si>
     <t>K30W04XD10</t>
@@ -206,10 +203,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -527,7 +523,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,10 +574,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -605,10 +601,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -632,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -647,10 +643,10 @@
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -661,25 +657,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -690,10 +686,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -705,22 +701,22 @@
         <v>12</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="2" t="s">
-        <v>20</v>
+      <c r="I6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -731,8 +727,8 @@
       <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>34</v>
+      <c r="I7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -740,13 +736,13 @@
         <v>243</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -757,8 +753,8 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>36</v>
+      <c r="I8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -769,10 +765,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -783,8 +779,8 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>37</v>
+      <c r="I9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -795,10 +791,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -809,8 +805,8 @@
       <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>38</v>
+      <c r="I10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -821,13 +817,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -835,8 +831,8 @@
       <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>39</v>
+      <c r="I11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -847,22 +843,22 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>40</v>
+      <c r="I12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -873,7 +869,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -885,10 +881,10 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -899,7 +895,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -914,13 +910,14 @@
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>